--- a/data/2025_BET_chick_banding_data.xlsx
+++ b/data/2025_BET_chick_banding_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/randall_friendly_fws_gov1/Documents/Documents/Biological Programs/Tree Swallow Nest Box Monitoring/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfriendly\OneDrive - DOI\Documents\Biological Programs\Tree Swallow Nest Box Monitoring\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{F5B3354F-C60B-4249-B868-7647807FB792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FA56CE5-844C-4837-B39A-2350EFB176D0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D754317-8A5F-4C68-A509-A0870AE237E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{E8522CAB-958B-4F0C-8105-43B686527326}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="55">
   <si>
     <t>box_number</t>
   </si>
@@ -137,11 +137,80 @@
   <si>
     <t>millimeters (mm)</t>
   </si>
+  <si>
+    <t>TRES</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>End of string</t>
+  </si>
+  <si>
+    <t>LD, RF</t>
+  </si>
+  <si>
+    <t>RF, DJ</t>
+  </si>
+  <si>
+    <t>DJ, RF</t>
+  </si>
+  <si>
+    <t>LD, KJ</t>
+  </si>
+  <si>
+    <t>RF, KJ</t>
+  </si>
+  <si>
+    <t>DJ, KJ</t>
+  </si>
+  <si>
+    <t>LD, DJ</t>
+  </si>
+  <si>
+    <t>Banded 6 of 6</t>
+  </si>
+  <si>
+    <t>Banded 5 of 5</t>
+  </si>
+  <si>
+    <t>DJ, LD</t>
+  </si>
+  <si>
+    <t>Banded 5 of 6</t>
+  </si>
+  <si>
+    <t>Banded 2 of 5</t>
+  </si>
+  <si>
+    <t>Banded 4 of 6</t>
+  </si>
+  <si>
+    <t>LD, BD</t>
+  </si>
+  <si>
+    <t>LD, EH</t>
+  </si>
+  <si>
+    <t>Band removed, over crimped?</t>
+  </si>
+  <si>
+    <t>Banded 5 of 6 (1 egg)</t>
+  </si>
+  <si>
+    <t>KJ, DJ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -187,6 +256,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -202,10 +277,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -525,19 +596,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750DB501-9975-4C6A-AE79-C4A6C84A7D3A}">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q117" sqref="Q117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.81640625" style="5"/>
+    <col min="12" max="12" width="8.81640625" style="4"/>
+    <col min="14" max="14" width="20.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.81640625" style="4"/>
+    <col min="16" max="16" width="8.81640625" style="6"/>
+    <col min="17" max="17" width="32.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
@@ -562,31 +639,31 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
       <c r="Q1" t="s">
@@ -594,324 +671,5993 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>2025</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2">
+        <v>160106798</v>
+      </c>
+      <c r="G2" s="3">
+        <v>45833</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="M2">
+        <v>45</v>
+      </c>
+      <c r="N2" s="4">
+        <v>6</v>
+      </c>
+      <c r="O2" s="4">
+        <v>25.6</v>
+      </c>
+      <c r="P2" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>2025</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3">
+        <v>160106799</v>
+      </c>
+      <c r="G3" s="3">
+        <v>45833</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M3">
+        <v>46</v>
+      </c>
+      <c r="N3" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="O3" s="4">
+        <v>24.3</v>
+      </c>
+      <c r="P3" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>2025</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4">
+        <v>160106800</v>
+      </c>
+      <c r="G4" s="3">
+        <v>45833</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="M4">
+        <v>42</v>
+      </c>
+      <c r="N4" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="O4" s="4">
+        <v>25.4</v>
+      </c>
+      <c r="P4" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>2025</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5">
+        <v>160106601</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45833</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M5">
+        <v>46</v>
+      </c>
+      <c r="N5" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="O5" s="4">
+        <v>25.5</v>
+      </c>
+      <c r="P5" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>2025</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6">
+        <v>160106602</v>
+      </c>
+      <c r="G6" s="3">
+        <v>45833</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M6">
+        <v>47</v>
+      </c>
+      <c r="N6" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="O6" s="4">
+        <v>26.6</v>
+      </c>
+      <c r="P6" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>2025</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7">
+        <v>160106603</v>
+      </c>
+      <c r="G7" s="3">
+        <v>45833</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="M7">
+        <v>48</v>
+      </c>
+      <c r="N7" s="4">
+        <v>9</v>
+      </c>
+      <c r="O7" s="4">
+        <v>24.1</v>
+      </c>
+      <c r="P7" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="2">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>2025</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8">
+        <v>160106604</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45833</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8" s="4">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>49</v>
+      </c>
+      <c r="N8" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="O8" s="4">
+        <v>24.1</v>
+      </c>
+      <c r="P8" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="2">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>2025</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9">
+        <v>160106605</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45833</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M9">
+        <v>52</v>
+      </c>
+      <c r="N9" s="4">
+        <v>10</v>
+      </c>
+      <c r="O9" s="4">
+        <v>25.1</v>
+      </c>
+      <c r="P9" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>2025</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10">
+        <v>160106606</v>
+      </c>
+      <c r="G10" s="3">
+        <v>45833</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10" s="4">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>46</v>
+      </c>
+      <c r="N10" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="O10" s="4">
+        <v>23.9</v>
+      </c>
+      <c r="P10" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="2">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>2025</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11">
+        <v>160106607</v>
+      </c>
+      <c r="G11" s="3">
+        <v>45833</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="M11">
+        <v>55</v>
+      </c>
+      <c r="N11" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="O11" s="4">
+        <v>24.7</v>
+      </c>
+      <c r="P11" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>2025</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12">
+        <v>160106608</v>
+      </c>
+      <c r="G12" s="3">
+        <v>45833</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M12">
+        <v>48</v>
+      </c>
+      <c r="N12" s="4">
+        <v>11.1</v>
+      </c>
+      <c r="O12" s="4">
+        <v>23.7</v>
+      </c>
+      <c r="P12" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="2">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>2025</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13">
+        <v>160106609</v>
+      </c>
+      <c r="G13" s="3">
+        <v>45833</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>50</v>
+      </c>
+      <c r="N13" s="4">
+        <v>9</v>
+      </c>
+      <c r="O13" s="4">
+        <v>23.1</v>
+      </c>
+      <c r="P13" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="2">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>2025</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <v>160106610</v>
+      </c>
+      <c r="G14" s="3">
+        <v>45833</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M14">
+        <v>44</v>
+      </c>
+      <c r="N14" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="O14" s="4">
+        <v>25</v>
+      </c>
+      <c r="P14" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="2">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>2025</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <v>160106611</v>
+      </c>
+      <c r="G15" s="3">
+        <v>45833</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15" s="4">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>47</v>
+      </c>
+      <c r="N15" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="O15" s="4">
+        <v>25.8</v>
+      </c>
+      <c r="P15" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
+      <c r="A16" s="2">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>2025</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16">
+        <v>160106612</v>
+      </c>
+      <c r="G16" s="3">
+        <v>45833</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="M16">
+        <v>40</v>
+      </c>
+      <c r="N16" s="4">
+        <v>5</v>
+      </c>
+      <c r="O16" s="4">
+        <v>27.6</v>
+      </c>
+      <c r="P16" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>2025</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17">
+        <v>160106613</v>
+      </c>
+      <c r="G17" s="3">
+        <v>45833</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="M17">
+        <v>49</v>
+      </c>
+      <c r="N17" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="O17" s="4">
+        <v>24.3</v>
+      </c>
+      <c r="P17" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>2025</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18">
+        <v>160106614</v>
+      </c>
+      <c r="G18" s="3">
+        <v>45833</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M18">
+        <v>41</v>
+      </c>
+      <c r="N18" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="O18" s="4">
+        <v>22.3</v>
+      </c>
+      <c r="P18" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>2025</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19">
+        <v>160106615</v>
+      </c>
+      <c r="G19" s="3">
+        <v>45833</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M19">
+        <v>46</v>
+      </c>
+      <c r="N19" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="O19" s="4">
+        <v>25.1</v>
+      </c>
+      <c r="P19" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>2025</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20">
+        <v>160106621</v>
+      </c>
+      <c r="G20" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="M20">
+        <v>62</v>
+      </c>
+      <c r="N20" s="4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="O20" s="4">
+        <v>25.1</v>
+      </c>
+      <c r="P20" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>2025</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21">
+        <v>160106622</v>
+      </c>
+      <c r="G21" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="M21">
+        <v>60</v>
+      </c>
+      <c r="N21" s="4">
+        <v>21.3</v>
+      </c>
+      <c r="O21" s="4">
+        <v>24.8</v>
+      </c>
+      <c r="P21" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>2025</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22">
+        <v>160106623</v>
+      </c>
+      <c r="G22" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22" s="4">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>67</v>
+      </c>
+      <c r="N22" s="4">
+        <v>23.8</v>
+      </c>
+      <c r="O22" s="4">
+        <v>26.3</v>
+      </c>
+      <c r="P22" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>2025</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23">
+        <v>160106624</v>
+      </c>
+      <c r="G23" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="M23">
+        <v>68</v>
+      </c>
+      <c r="N23" s="4">
+        <v>25.7</v>
+      </c>
+      <c r="O23" s="4">
+        <v>24.2</v>
+      </c>
+      <c r="P23" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>2025</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24">
+        <v>160106625</v>
+      </c>
+      <c r="G24" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M24">
+        <v>66</v>
+      </c>
+      <c r="N24" s="4">
+        <v>26.4</v>
+      </c>
+      <c r="O24" s="4">
+        <v>23.9</v>
+      </c>
+      <c r="P24" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>2025</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25">
+        <v>160106626</v>
+      </c>
+      <c r="G25" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M25">
+        <v>71</v>
+      </c>
+      <c r="N25" s="4">
+        <v>26.5</v>
+      </c>
+      <c r="O25" s="4">
+        <v>27.1</v>
+      </c>
+      <c r="P25" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>2025</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26">
+        <v>160106628</v>
+      </c>
+      <c r="G26" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="5">
+        <v>5</v>
+      </c>
+      <c r="L26" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="M26" s="5">
+        <v>52</v>
+      </c>
+      <c r="N26" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="O26" s="4">
+        <v>23.6</v>
+      </c>
+      <c r="P26" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>2025</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27">
+        <v>160106630</v>
+      </c>
+      <c r="G27" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" s="5">
+        <v>5</v>
+      </c>
+      <c r="L27" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="M27" s="5">
+        <v>52</v>
+      </c>
+      <c r="N27" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="O27" s="4">
+        <v>22.8</v>
+      </c>
+      <c r="P27" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>2025</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28">
+        <v>160106629</v>
+      </c>
+      <c r="G28" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" s="5">
+        <v>4</v>
+      </c>
+      <c r="L28" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M28" s="5">
+        <v>49</v>
+      </c>
+      <c r="N28" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="O28" s="4">
+        <v>23</v>
+      </c>
+      <c r="P28" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>2025</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29">
+        <v>160106631</v>
+      </c>
+      <c r="G29" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="5">
+        <v>3</v>
+      </c>
+      <c r="L29" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="M29" s="5">
+        <v>53</v>
+      </c>
+      <c r="N29" s="4">
+        <v>13.8</v>
+      </c>
+      <c r="O29" s="4">
+        <v>24.3</v>
+      </c>
+      <c r="P29" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>2025</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30">
+        <v>160106632</v>
+      </c>
+      <c r="G30" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30" s="5">
+        <v>3</v>
+      </c>
+      <c r="L30" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="M30" s="5">
+        <v>52</v>
+      </c>
+      <c r="N30" s="4">
+        <v>13</v>
+      </c>
+      <c r="O30" s="4">
+        <v>24.5</v>
+      </c>
+      <c r="P30" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>2025</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31">
+        <v>160106633</v>
+      </c>
+      <c r="G31" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31" s="5">
+        <v>4</v>
+      </c>
+      <c r="L31" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M31" s="5">
+        <v>50</v>
+      </c>
+      <c r="N31" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="O31" s="4">
+        <v>22</v>
+      </c>
+      <c r="P31" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>11</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>2025</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32">
+        <v>160106640</v>
+      </c>
+      <c r="G32" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" s="5">
+        <v>5</v>
+      </c>
+      <c r="L32" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="M32" s="5">
+        <v>52</v>
+      </c>
+      <c r="N32" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="O32" s="4">
+        <v>29</v>
+      </c>
+      <c r="P32" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>11</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>2025</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33">
+        <v>160106641</v>
+      </c>
+      <c r="G33" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" s="5">
+        <v>5</v>
+      </c>
+      <c r="L33" s="4">
+        <v>5</v>
+      </c>
+      <c r="M33" s="5">
+        <v>53</v>
+      </c>
+      <c r="N33" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="O33" s="4">
+        <v>26.7</v>
+      </c>
+      <c r="P33" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>11</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <v>2025</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34">
+        <v>160106642</v>
+      </c>
+      <c r="G34" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H34" s="5">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34" s="5">
+        <v>3</v>
+      </c>
+      <c r="L34" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M34" s="5">
+        <v>51</v>
+      </c>
+      <c r="N34" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="O34" s="4">
+        <v>26.6</v>
+      </c>
+      <c r="P34" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>11</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>2025</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35">
+        <v>160106643</v>
+      </c>
+      <c r="G35" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H35" s="5">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" s="5">
+        <v>5</v>
+      </c>
+      <c r="L35" s="4">
+        <v>5</v>
+      </c>
+      <c r="M35" s="5">
+        <v>55</v>
+      </c>
+      <c r="N35" s="4">
+        <v>12</v>
+      </c>
+      <c r="O35" s="4">
+        <v>26.5</v>
+      </c>
+      <c r="P35" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>11</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>2025</v>
+      </c>
+      <c r="E36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36">
+        <v>160106644</v>
+      </c>
+      <c r="G36" s="3">
+        <v>45834</v>
+      </c>
+      <c r="H36" s="5">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K36" s="5">
+        <v>5</v>
+      </c>
+      <c r="L36" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M36" s="5">
+        <v>52</v>
+      </c>
+      <c r="N36" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="O36" s="4">
+        <v>24.6</v>
+      </c>
+      <c r="P36" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>23</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <v>2025</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37">
+        <v>160106648</v>
+      </c>
+      <c r="G37" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H37" s="5">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37" s="5">
+        <v>4</v>
+      </c>
+      <c r="L37" s="4">
+        <v>5</v>
+      </c>
+      <c r="M37" s="5">
+        <v>63</v>
+      </c>
+      <c r="N37" s="4">
+        <v>22.2</v>
+      </c>
+      <c r="O37" s="4">
+        <v>27.1</v>
+      </c>
+      <c r="P37" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>23</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>2025</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38">
+        <v>160106649</v>
+      </c>
+      <c r="G38" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H38" s="5">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K38" s="5">
+        <v>4</v>
+      </c>
+      <c r="L38" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M38" s="5">
+        <v>62</v>
+      </c>
+      <c r="N38" s="4">
+        <v>19</v>
+      </c>
+      <c r="O38" s="4">
+        <v>29.9</v>
+      </c>
+      <c r="P38" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>23</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>2025</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39">
+        <v>160106650</v>
+      </c>
+      <c r="G39" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K39" s="5">
+        <v>4</v>
+      </c>
+      <c r="L39" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M39" s="5">
+        <v>58</v>
+      </c>
+      <c r="N39" s="4">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="O39" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="P39" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>23</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>2025</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40">
+        <v>160106651</v>
+      </c>
+      <c r="G40" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H40" s="5">
+        <v>1</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K40" s="5">
+        <v>5</v>
+      </c>
+      <c r="L40" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="M40" s="5">
+        <v>61</v>
+      </c>
+      <c r="N40" s="4">
+        <v>20</v>
+      </c>
+      <c r="O40" s="4">
+        <v>25.9</v>
+      </c>
+      <c r="P40" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>23</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <v>2025</v>
+      </c>
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41">
+        <v>160106652</v>
+      </c>
+      <c r="G41" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K41" s="5">
+        <v>4</v>
+      </c>
+      <c r="L41" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M41" s="5">
+        <v>60</v>
+      </c>
+      <c r="N41" s="4">
+        <v>15.9</v>
+      </c>
+      <c r="O41" s="4">
+        <v>27.5</v>
+      </c>
+      <c r="P41" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>23</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <v>2025</v>
+      </c>
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42">
+        <v>160106653</v>
+      </c>
+      <c r="G42" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K42" s="5">
+        <v>4</v>
+      </c>
+      <c r="L42" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="M42" s="5">
+        <v>59</v>
+      </c>
+      <c r="N42" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="O42" s="4">
+        <v>27</v>
+      </c>
+      <c r="P42" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>9</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <v>2025</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43">
+        <v>160106654</v>
+      </c>
+      <c r="G43" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43" s="5">
+        <v>4</v>
+      </c>
+      <c r="L43" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M43" s="5">
+        <v>45</v>
+      </c>
+      <c r="N43" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="O43" s="4">
+        <v>24.7</v>
+      </c>
+      <c r="P43" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>9</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44">
+        <v>2025</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44">
+        <v>160106655</v>
+      </c>
+      <c r="G44" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H44" s="5">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K44" s="5">
+        <v>4</v>
+      </c>
+      <c r="L44" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="M44" s="5">
+        <v>46</v>
+      </c>
+      <c r="N44" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="O44" s="4">
+        <v>25.2</v>
+      </c>
+      <c r="P44" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>9</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45">
+        <v>2025</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45">
+        <v>160106656</v>
+      </c>
+      <c r="G45" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K45" s="5">
+        <v>4</v>
+      </c>
+      <c r="L45" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="M45" s="5">
+        <v>45</v>
+      </c>
+      <c r="N45" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="O45" s="4">
+        <v>24.4</v>
+      </c>
+      <c r="P45" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>9</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46">
+        <v>2025</v>
+      </c>
+      <c r="E46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46">
+        <v>160106657</v>
+      </c>
+      <c r="G46" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H46" s="5">
+        <v>1</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K46" s="5">
+        <v>3</v>
+      </c>
+      <c r="L46" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M46" s="5">
+        <v>41</v>
+      </c>
+      <c r="N46" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="O46" s="4">
+        <v>23.7</v>
+      </c>
+      <c r="P46" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>9</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47">
+        <v>2025</v>
+      </c>
+      <c r="E47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47">
+        <v>160106658</v>
+      </c>
+      <c r="G47" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H47" s="5">
+        <v>1</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K47" s="5">
+        <v>3</v>
+      </c>
+      <c r="L47" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M47" s="5">
+        <v>42</v>
+      </c>
+      <c r="N47" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="O47" s="4">
+        <v>22</v>
+      </c>
+      <c r="P47" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>9</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <v>2025</v>
+      </c>
+      <c r="E48" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48">
+        <v>160106659</v>
+      </c>
+      <c r="G48" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H48" s="5">
+        <v>1</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K48" s="5">
+        <v>4</v>
+      </c>
+      <c r="L48" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="M48" s="5">
+        <v>43</v>
+      </c>
+      <c r="N48" s="4">
+        <v>8</v>
+      </c>
+      <c r="O48" s="4">
+        <v>24.1</v>
+      </c>
+      <c r="P48" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>7</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49">
+        <v>2025</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49">
+        <v>160106661</v>
+      </c>
+      <c r="G49" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H49" s="5">
+        <v>1</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K49" s="5">
+        <v>4</v>
+      </c>
+      <c r="L49" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M49" s="5">
+        <v>46</v>
+      </c>
+      <c r="N49" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="O49" s="4">
+        <v>24.4</v>
+      </c>
+      <c r="P49" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>7</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50">
+        <v>2025</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50">
+        <v>160106662</v>
+      </c>
+      <c r="G50" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H50" s="5">
+        <v>1</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K50" s="5">
+        <v>5</v>
+      </c>
+      <c r="L50" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="M50" s="5">
+        <v>46</v>
+      </c>
+      <c r="N50" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="O50" s="4">
+        <v>24.9</v>
+      </c>
+      <c r="P50" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>7</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51">
+        <v>2025</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51">
+        <v>160106663</v>
+      </c>
+      <c r="G51" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H51" s="5">
+        <v>1</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" s="5">
+        <v>4</v>
+      </c>
+      <c r="L51" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M51" s="5">
+        <v>49</v>
+      </c>
+      <c r="N51" s="4">
+        <v>12.1</v>
+      </c>
+      <c r="O51" s="4">
+        <v>26.5</v>
+      </c>
+      <c r="P51" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>7</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52">
+        <v>2025</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52">
+        <v>160106664</v>
+      </c>
+      <c r="G52" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H52" s="5">
+        <v>1</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K52" s="5">
+        <v>4</v>
+      </c>
+      <c r="L52" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M52" s="5">
+        <v>45</v>
+      </c>
+      <c r="N52" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="O52" s="4">
+        <v>25</v>
+      </c>
+      <c r="P52" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>7</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53">
+        <v>2025</v>
+      </c>
+      <c r="E53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53">
+        <v>160106665</v>
+      </c>
+      <c r="G53" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H53" s="5">
+        <v>1</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K53" s="5">
+        <v>5</v>
+      </c>
+      <c r="L53" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M53" s="5">
+        <v>48</v>
+      </c>
+      <c r="N53" s="4">
+        <v>10</v>
+      </c>
+      <c r="O53" s="4">
+        <v>25.2</v>
+      </c>
+      <c r="P53" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>7</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54">
+        <v>2025</v>
+      </c>
+      <c r="E54" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54">
+        <v>160106666</v>
+      </c>
+      <c r="G54" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H54" s="5">
+        <v>1</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K54" s="5">
+        <v>4</v>
+      </c>
+      <c r="L54" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M54" s="5">
+        <v>47</v>
+      </c>
+      <c r="N54" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="O54" s="4">
+        <v>23.9</v>
+      </c>
+      <c r="P54" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>6</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55">
+        <v>2025</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55">
+        <v>160106668</v>
+      </c>
+      <c r="G55" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H55" s="5">
+        <v>1</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K55" s="5">
+        <v>4</v>
+      </c>
+      <c r="L55" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="M55" s="5">
+        <v>51</v>
+      </c>
+      <c r="N55" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="O55" s="4">
+        <v>24.8</v>
+      </c>
+      <c r="P55" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>6</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56">
+        <v>2025</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56">
+        <v>160106669</v>
+      </c>
+      <c r="G56" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H56" s="5">
+        <v>1</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K56" s="5">
+        <v>5</v>
+      </c>
+      <c r="L56" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M56" s="5">
+        <v>48</v>
+      </c>
+      <c r="N56" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="O56" s="4">
+        <v>25</v>
+      </c>
+      <c r="P56" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>6</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57">
+        <v>2025</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57">
+        <v>160106670</v>
+      </c>
+      <c r="G57" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H57" s="5">
+        <v>1</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K57" s="5">
+        <v>5</v>
+      </c>
+      <c r="L57" s="4">
+        <v>5</v>
+      </c>
+      <c r="M57" s="5">
+        <v>53</v>
+      </c>
+      <c r="N57" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="O57" s="4">
+        <v>25.8</v>
+      </c>
+      <c r="P57" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
+        <v>6</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58">
+        <v>2025</v>
+      </c>
+      <c r="E58" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58">
+        <v>160106671</v>
+      </c>
+      <c r="G58" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H58" s="5">
+        <v>1</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K58" s="5">
+        <v>5</v>
+      </c>
+      <c r="L58" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M58" s="5">
+        <v>52</v>
+      </c>
+      <c r="N58" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="O58" s="4">
+        <v>25.4</v>
+      </c>
+      <c r="P58" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
+        <v>6</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59">
+        <v>2025</v>
+      </c>
+      <c r="E59" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59">
+        <v>160106672</v>
+      </c>
+      <c r="G59" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H59" s="5">
+        <v>1</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K59" s="5">
+        <v>5</v>
+      </c>
+      <c r="L59" s="4">
+        <v>5</v>
+      </c>
+      <c r="M59" s="5">
+        <v>50</v>
+      </c>
+      <c r="N59" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="O59" s="4">
+        <v>23.1</v>
+      </c>
+      <c r="P59" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
+        <v>6</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60">
+        <v>2025</v>
+      </c>
+      <c r="E60" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60">
+        <v>160106673</v>
+      </c>
+      <c r="G60" s="3">
+        <v>45835</v>
+      </c>
+      <c r="H60" s="5">
+        <v>1</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K60" s="5">
+        <v>5</v>
+      </c>
+      <c r="L60" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M60" s="5">
+        <v>51</v>
+      </c>
+      <c r="N60" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="O60" s="4">
+        <v>23.6</v>
+      </c>
+      <c r="P60" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
+        <v>21</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61">
+        <v>2025</v>
+      </c>
+      <c r="E61" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61">
+        <v>160106676</v>
+      </c>
+      <c r="G61" s="3">
+        <v>45836</v>
+      </c>
+      <c r="H61" s="5">
+        <v>1</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K61" s="5">
+        <v>4</v>
+      </c>
+      <c r="L61" s="4">
+        <v>5</v>
+      </c>
+      <c r="M61" s="5">
+        <v>50</v>
+      </c>
+      <c r="N61" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="O61" s="4">
+        <v>23.4</v>
+      </c>
+      <c r="P61" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
+        <v>21</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>2025</v>
+      </c>
+      <c r="E62" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62">
+        <v>160106677</v>
+      </c>
+      <c r="G62" s="3">
+        <v>45836</v>
+      </c>
+      <c r="H62" s="5">
+        <v>1</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K62" s="5">
+        <v>4</v>
+      </c>
+      <c r="L62" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M62" s="5">
+        <v>48</v>
+      </c>
+      <c r="N62" s="4">
+        <v>9</v>
+      </c>
+      <c r="O62" s="4">
+        <v>24.2</v>
+      </c>
+      <c r="P62" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
+        <v>21</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63">
+        <v>2025</v>
+      </c>
+      <c r="E63" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63">
+        <v>160106678</v>
+      </c>
+      <c r="G63" s="3">
+        <v>45836</v>
+      </c>
+      <c r="H63" s="5">
+        <v>1</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K63" s="5">
+        <v>5</v>
+      </c>
+      <c r="L63" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="M63" s="5">
+        <v>51</v>
+      </c>
+      <c r="N63" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="O63" s="4">
+        <v>24.1</v>
+      </c>
+      <c r="P63" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
+        <v>21</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64">
+        <v>2025</v>
+      </c>
+      <c r="E64" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64">
+        <v>160106679</v>
+      </c>
+      <c r="G64" s="3">
+        <v>45836</v>
+      </c>
+      <c r="H64" s="5">
+        <v>1</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K64" s="5">
+        <v>4</v>
+      </c>
+      <c r="L64" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M64" s="5">
+        <v>50</v>
+      </c>
+      <c r="N64" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="O64" s="4">
+        <v>24</v>
+      </c>
+      <c r="P64" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
+        <v>21</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65">
+        <v>2025</v>
+      </c>
+      <c r="E65" t="s">
+        <v>37</v>
+      </c>
+      <c r="F65">
+        <v>160106680</v>
+      </c>
+      <c r="G65" s="3">
+        <v>45836</v>
+      </c>
+      <c r="H65" s="5">
+        <v>1</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K65" s="5">
+        <v>5</v>
+      </c>
+      <c r="L65" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="M65" s="5">
+        <v>45</v>
+      </c>
+      <c r="N65" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="O65" s="4">
+        <v>25.8</v>
+      </c>
+      <c r="P65" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
+        <v>8</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66">
+        <v>2025</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66">
+        <v>160106681</v>
+      </c>
+      <c r="G66" s="3">
+        <v>45836</v>
+      </c>
+      <c r="H66" s="5">
+        <v>1</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K66" s="5">
+        <v>5</v>
+      </c>
+      <c r="L66" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="M66" s="5">
+        <v>63</v>
+      </c>
+      <c r="N66" s="4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="O66" s="4">
+        <v>24.2</v>
+      </c>
+      <c r="P66" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
+        <v>8</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67">
+        <v>2025</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67">
+        <v>160106682</v>
+      </c>
+      <c r="G67" s="3">
+        <v>45836</v>
+      </c>
+      <c r="H67" s="5">
+        <v>1</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K67" s="5">
+        <v>5</v>
+      </c>
+      <c r="L67" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M67" s="5">
+        <v>63</v>
+      </c>
+      <c r="N67" s="4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="O67" s="4">
+        <v>24.8</v>
+      </c>
+      <c r="P67" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
+        <v>8</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68">
+        <v>2025</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68">
+        <v>160106683</v>
+      </c>
+      <c r="G68" s="3">
+        <v>45836</v>
+      </c>
+      <c r="H68" s="5">
+        <v>1</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K68" s="5">
+        <v>5</v>
+      </c>
+      <c r="L68" s="4">
+        <v>5</v>
+      </c>
+      <c r="M68" s="5">
+        <v>60</v>
+      </c>
+      <c r="N68" s="4">
+        <v>18.3</v>
+      </c>
+      <c r="O68" s="4">
+        <v>24.7</v>
+      </c>
+      <c r="P68" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A69" s="2">
+        <v>8</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69">
+        <v>2025</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69">
+        <v>160106684</v>
+      </c>
+      <c r="G69" s="3">
+        <v>45836</v>
+      </c>
+      <c r="H69" s="5">
+        <v>1</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K69" s="5">
+        <v>5</v>
+      </c>
+      <c r="L69" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="M69" s="5">
+        <v>56</v>
+      </c>
+      <c r="N69" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="O69" s="4">
+        <v>26.6</v>
+      </c>
+      <c r="P69" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A70" s="2">
+        <v>8</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70">
+        <v>2025</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70">
+        <v>160106685</v>
+      </c>
+      <c r="G70" s="3">
+        <v>45836</v>
+      </c>
+      <c r="H70" s="5">
+        <v>1</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K70" s="5">
+        <v>5</v>
+      </c>
+      <c r="L70" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="M70" s="5">
+        <v>59</v>
+      </c>
+      <c r="N70" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="O70" s="4">
+        <v>23.7</v>
+      </c>
+      <c r="P70" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A71" s="2">
+        <v>8</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71">
+        <v>2025</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71">
+        <v>160106686</v>
+      </c>
+      <c r="G71" s="3">
+        <v>45836</v>
+      </c>
+      <c r="H71" s="5">
+        <v>1</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K71" s="5">
+        <v>5</v>
+      </c>
+      <c r="L71" s="4">
+        <v>5</v>
+      </c>
+      <c r="M71" s="5">
+        <v>62</v>
+      </c>
+      <c r="N71" s="4">
+        <v>18.7</v>
+      </c>
+      <c r="O71" s="4">
+        <v>26.6</v>
+      </c>
+      <c r="P71" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A72" s="2">
+        <v>45</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72">
+        <v>2025</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72">
+        <v>160106687</v>
+      </c>
+      <c r="G72" s="3">
+        <v>45836</v>
+      </c>
+      <c r="H72" s="5">
+        <v>1</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K72" s="5">
+        <v>4</v>
+      </c>
+      <c r="L72" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="M72" s="5">
+        <v>51</v>
+      </c>
+      <c r="N72" s="4">
+        <v>11.1</v>
+      </c>
+      <c r="O72" s="4">
+        <v>25.5</v>
+      </c>
+      <c r="P72" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A73" s="2">
+        <v>45</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73">
+        <v>2025</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73">
+        <v>160106688</v>
+      </c>
+      <c r="G73" s="3">
+        <v>45836</v>
+      </c>
+      <c r="H73" s="5">
+        <v>1</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K73" s="5">
+        <v>5</v>
+      </c>
+      <c r="L73" s="4">
+        <v>5</v>
+      </c>
+      <c r="M73" s="5">
+        <v>51</v>
+      </c>
+      <c r="N73" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="O73" s="4">
+        <v>24.8</v>
+      </c>
+      <c r="P73" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A74" s="2">
+        <v>45</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74">
+        <v>2025</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74">
+        <v>160106689</v>
+      </c>
+      <c r="G74" s="3">
+        <v>45836</v>
+      </c>
+      <c r="H74" s="5">
+        <v>1</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K74" s="5">
+        <v>5</v>
+      </c>
+      <c r="L74" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="M74" s="5">
+        <v>47</v>
+      </c>
+      <c r="N74" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="O74" s="4">
+        <v>22.2</v>
+      </c>
+      <c r="P74" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A75" s="2">
+        <v>45</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75">
+        <v>2025</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75">
+        <v>160106690</v>
+      </c>
+      <c r="G75" s="3">
+        <v>45836</v>
+      </c>
+      <c r="H75" s="5">
+        <v>1</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K75" s="5">
+        <v>4</v>
+      </c>
+      <c r="L75" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="M75" s="5">
+        <v>52</v>
+      </c>
+      <c r="N75" s="4">
+        <v>10</v>
+      </c>
+      <c r="O75" s="4">
+        <v>22.7</v>
+      </c>
+      <c r="P75" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A76" s="2">
+        <v>45</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76">
+        <v>2025</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76">
+        <v>160106691</v>
+      </c>
+      <c r="G76" s="3">
+        <v>45836</v>
+      </c>
+      <c r="H76" s="5">
+        <v>1</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K76" s="5">
+        <v>5</v>
+      </c>
+      <c r="L76" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="M76" s="5">
+        <v>53</v>
+      </c>
+      <c r="N76" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="O76" s="4">
+        <v>24.3</v>
+      </c>
+      <c r="P76" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A77" s="2">
+        <v>14</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77">
+        <v>2025</v>
+      </c>
+      <c r="E77" t="s">
+        <v>50</v>
+      </c>
+      <c r="F77">
+        <v>160106695</v>
+      </c>
+      <c r="G77" s="3">
+        <v>45837</v>
+      </c>
+      <c r="H77" s="5">
+        <v>1</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K77" s="5">
+        <v>3</v>
+      </c>
+      <c r="L77" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M77" s="5">
+        <v>41</v>
+      </c>
+      <c r="N77" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O77" s="4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="P77" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A78" s="2">
+        <v>14</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78">
+        <v>2025</v>
+      </c>
+      <c r="E78" t="s">
+        <v>50</v>
+      </c>
+      <c r="F78">
+        <v>160106696</v>
+      </c>
+      <c r="G78" s="3">
+        <v>45837</v>
+      </c>
+      <c r="H78" s="5">
+        <v>1</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K78" s="5">
+        <v>4</v>
+      </c>
+      <c r="L78" s="4">
+        <v>5</v>
+      </c>
+      <c r="M78" s="5">
+        <v>42</v>
+      </c>
+      <c r="N78" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="O78" s="4">
+        <v>20.3</v>
+      </c>
+      <c r="P78" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A79" s="2">
+        <v>13</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79">
+        <v>2025</v>
+      </c>
+      <c r="E79" t="s">
+        <v>37</v>
+      </c>
+      <c r="F79">
+        <v>160106698</v>
+      </c>
+      <c r="G79" s="3">
+        <v>45837</v>
+      </c>
+      <c r="H79" s="5">
+        <v>1</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K79" s="5">
+        <v>4</v>
+      </c>
+      <c r="L79" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M79" s="5">
+        <v>47</v>
+      </c>
+      <c r="N79" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="O79" s="4">
+        <v>23.8</v>
+      </c>
+      <c r="P79" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A80" s="2">
+        <v>13</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80">
+        <v>2025</v>
+      </c>
+      <c r="E80" t="s">
+        <v>51</v>
+      </c>
+      <c r="F80">
+        <v>160106699</v>
+      </c>
+      <c r="G80" s="3">
+        <v>45837</v>
+      </c>
+      <c r="H80" s="5">
+        <v>1</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K80" s="5">
+        <v>4</v>
+      </c>
+      <c r="L80" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M80" s="5">
+        <v>46</v>
+      </c>
+      <c r="N80" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="O80" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="P80" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A81" s="2">
+        <v>13</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81">
+        <v>2025</v>
+      </c>
+      <c r="E81" t="s">
+        <v>51</v>
+      </c>
+      <c r="F81">
+        <v>160106700</v>
+      </c>
+      <c r="G81" s="3">
+        <v>45837</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A82" s="2">
+        <v>13</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82">
+        <v>2025</v>
+      </c>
+      <c r="E82" t="s">
+        <v>51</v>
+      </c>
+      <c r="F82">
+        <v>317184401</v>
+      </c>
+      <c r="G82" s="3">
+        <v>45837</v>
+      </c>
+      <c r="H82" s="5">
+        <v>1</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K82" s="5">
+        <v>5</v>
+      </c>
+      <c r="L82" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="M82" s="5">
+        <v>48</v>
+      </c>
+      <c r="N82" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O82" s="4">
+        <v>22.7</v>
+      </c>
+      <c r="P82" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A83" s="2">
+        <v>13</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83">
+        <v>2025</v>
+      </c>
+      <c r="E83" t="s">
+        <v>51</v>
+      </c>
+      <c r="F83">
+        <v>317184402</v>
+      </c>
+      <c r="G83" s="3">
+        <v>45837</v>
+      </c>
+      <c r="H83" s="5">
+        <v>1</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K83" s="5">
+        <v>4</v>
+      </c>
+      <c r="L83" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="M83" s="5">
+        <v>45</v>
+      </c>
+      <c r="N83" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="O83" s="4">
+        <v>22.2</v>
+      </c>
+      <c r="P83" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A84" s="2">
+        <v>13</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84">
+        <v>2025</v>
+      </c>
+      <c r="E84" t="s">
+        <v>51</v>
+      </c>
+      <c r="F84">
+        <v>317184403</v>
+      </c>
+      <c r="G84" s="3">
+        <v>45837</v>
+      </c>
+      <c r="H84" s="5">
+        <v>1</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K84" s="5">
+        <v>4</v>
+      </c>
+      <c r="L84" s="4">
+        <v>5</v>
+      </c>
+      <c r="M84" s="5">
+        <v>46</v>
+      </c>
+      <c r="N84" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="O84" s="4">
+        <v>22.7</v>
+      </c>
+      <c r="P84" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A85" s="2">
+        <v>44</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85">
+        <v>2025</v>
+      </c>
+      <c r="E85" t="s">
+        <v>51</v>
+      </c>
+      <c r="F85">
+        <v>317184405</v>
+      </c>
+      <c r="G85" s="3">
+        <v>45837</v>
+      </c>
+      <c r="H85" s="5">
+        <v>1</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K85" s="5">
+        <v>4</v>
+      </c>
+      <c r="L85" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M85" s="5">
+        <v>43</v>
+      </c>
+      <c r="N85" s="4">
+        <v>11</v>
+      </c>
+      <c r="O85" s="4">
+        <v>24.3</v>
+      </c>
+      <c r="P85" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A86" s="2">
+        <v>44</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86">
+        <v>2025</v>
+      </c>
+      <c r="E86" t="s">
+        <v>51</v>
+      </c>
+      <c r="F86">
+        <v>317184406</v>
+      </c>
+      <c r="G86" s="3">
+        <v>45837</v>
+      </c>
+      <c r="H86" s="5">
+        <v>1</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K86" s="5">
+        <v>5</v>
+      </c>
+      <c r="L86" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="M86" s="5">
+        <v>49</v>
+      </c>
+      <c r="N86" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O86" s="4">
+        <v>23.9</v>
+      </c>
+      <c r="P86" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A87" s="2">
+        <v>44</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87">
+        <v>2025</v>
+      </c>
+      <c r="E87" t="s">
+        <v>51</v>
+      </c>
+      <c r="F87">
+        <v>317184407</v>
+      </c>
+      <c r="G87" s="3">
+        <v>45837</v>
+      </c>
+      <c r="H87" s="5">
+        <v>1</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K87" s="5">
+        <v>5</v>
+      </c>
+      <c r="L87" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M87" s="5">
+        <v>51</v>
+      </c>
+      <c r="N87" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="O87" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="P87" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A88" s="2">
+        <v>44</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88">
+        <v>2025</v>
+      </c>
+      <c r="E88" t="s">
+        <v>51</v>
+      </c>
+      <c r="F88">
+        <v>317184408</v>
+      </c>
+      <c r="G88" s="3">
+        <v>45837</v>
+      </c>
+      <c r="H88" s="5">
+        <v>1</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K88" s="5">
+        <v>5</v>
+      </c>
+      <c r="L88" s="4">
+        <v>5</v>
+      </c>
+      <c r="M88" s="5">
+        <v>51</v>
+      </c>
+      <c r="N88" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="O88" s="4">
+        <v>26</v>
+      </c>
+      <c r="P88" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A89" s="2">
+        <v>1</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89">
+        <v>2025</v>
+      </c>
+      <c r="E89" t="s">
+        <v>42</v>
+      </c>
+      <c r="F89">
+        <v>317184411</v>
+      </c>
+      <c r="G89" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H89" s="5">
+        <v>1</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K89" s="5">
+        <v>3</v>
+      </c>
+      <c r="L89" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M89" s="5">
+        <v>59</v>
+      </c>
+      <c r="N89" s="4">
+        <v>19.2</v>
+      </c>
+      <c r="O89" s="4">
+        <v>18</v>
+      </c>
+      <c r="P89" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A90" s="2">
+        <v>1</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90">
+        <v>2025</v>
+      </c>
+      <c r="E90" t="s">
+        <v>42</v>
+      </c>
+      <c r="F90">
+        <v>317184412</v>
+      </c>
+      <c r="G90" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H90" s="5">
+        <v>1</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K90" s="5">
+        <v>2</v>
+      </c>
+      <c r="L90" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="M90" s="5">
+        <v>59</v>
+      </c>
+      <c r="N90" s="4">
+        <v>21.9</v>
+      </c>
+      <c r="O90" s="4">
+        <v>19</v>
+      </c>
+      <c r="P90" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A91" s="2">
+        <v>1</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91">
+        <v>2025</v>
+      </c>
+      <c r="E91" t="s">
+        <v>42</v>
+      </c>
+      <c r="F91">
+        <v>317184413</v>
+      </c>
+      <c r="G91" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H91" s="5">
+        <v>1</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K91" s="5">
+        <v>3</v>
+      </c>
+      <c r="L91" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="M91" s="5">
+        <v>56</v>
+      </c>
+      <c r="N91" s="4">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="O91" s="4">
+        <v>19</v>
+      </c>
+      <c r="P91" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A92" s="2">
+        <v>1</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92">
+        <v>2025</v>
+      </c>
+      <c r="E92" t="s">
+        <v>42</v>
+      </c>
+      <c r="F92">
+        <v>317184414</v>
+      </c>
+      <c r="G92" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H92" s="5">
+        <v>1</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K92" s="5">
+        <v>1</v>
+      </c>
+      <c r="L92" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M92" s="5">
+        <v>54</v>
+      </c>
+      <c r="N92" s="4">
+        <v>17</v>
+      </c>
+      <c r="O92" s="4">
+        <v>19</v>
+      </c>
+      <c r="P92" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A93" s="2">
+        <v>1</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93">
+        <v>2025</v>
+      </c>
+      <c r="E93" t="s">
+        <v>42</v>
+      </c>
+      <c r="F93">
+        <v>317184415</v>
+      </c>
+      <c r="G93" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H93" s="5">
+        <v>1</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K93" s="5">
+        <v>2</v>
+      </c>
+      <c r="L93" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M93" s="5">
+        <v>56</v>
+      </c>
+      <c r="N93" s="4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="O93" s="4">
+        <v>18</v>
+      </c>
+      <c r="P93" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A94" s="2">
+        <v>41</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94">
+        <v>2025</v>
+      </c>
+      <c r="E94" t="s">
+        <v>54</v>
+      </c>
+      <c r="F94">
+        <v>317184416</v>
+      </c>
+      <c r="G94" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H94" s="5">
+        <v>1</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K94" s="5">
+        <v>3</v>
+      </c>
+      <c r="L94" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M94" s="5">
+        <v>43</v>
+      </c>
+      <c r="N94" s="4">
+        <v>9</v>
+      </c>
+      <c r="O94" s="4">
+        <v>18</v>
+      </c>
+      <c r="P94" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A95" s="2">
+        <v>41</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95">
+        <v>2025</v>
+      </c>
+      <c r="E95" t="s">
+        <v>54</v>
+      </c>
+      <c r="F95">
+        <v>317184417</v>
+      </c>
+      <c r="G95" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H95" s="5">
+        <v>1</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K95" s="5">
+        <v>2</v>
+      </c>
+      <c r="L95" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="M95" s="5">
+        <v>44</v>
+      </c>
+      <c r="N95" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="O95" s="4">
+        <v>18</v>
+      </c>
+      <c r="P95" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A96" s="2">
+        <v>41</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96">
+        <v>2025</v>
+      </c>
+      <c r="E96" t="s">
+        <v>54</v>
+      </c>
+      <c r="F96">
+        <v>317184418</v>
+      </c>
+      <c r="G96" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H96" s="5">
+        <v>1</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K96" s="5">
+        <v>4</v>
+      </c>
+      <c r="L96" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M96" s="5">
+        <v>47</v>
+      </c>
+      <c r="N96" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="O96" s="4">
+        <v>20</v>
+      </c>
+      <c r="P96" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A97" s="2">
+        <v>41</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97">
+        <v>2025</v>
+      </c>
+      <c r="E97" t="s">
+        <v>54</v>
+      </c>
+      <c r="F97">
+        <v>317184419</v>
+      </c>
+      <c r="G97" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H97" s="5">
+        <v>1</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K97" s="5">
+        <v>4</v>
+      </c>
+      <c r="L97" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M97" s="5">
+        <v>46</v>
+      </c>
+      <c r="N97" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="O97" s="4">
+        <v>19</v>
+      </c>
+      <c r="P97" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A98" s="2">
+        <v>41</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98">
+        <v>2025</v>
+      </c>
+      <c r="E98" t="s">
+        <v>54</v>
+      </c>
+      <c r="F98">
+        <v>317184420</v>
+      </c>
+      <c r="G98" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H98" s="5">
+        <v>1</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K98" s="5">
+        <v>3</v>
+      </c>
+      <c r="L98" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="M98" s="5">
+        <v>46</v>
+      </c>
+      <c r="N98" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O98" s="4">
+        <v>19</v>
+      </c>
+      <c r="P98" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A99" s="2">
+        <v>41</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99">
+        <v>2025</v>
+      </c>
+      <c r="E99" t="s">
+        <v>54</v>
+      </c>
+      <c r="F99">
+        <v>317184421</v>
+      </c>
+      <c r="G99" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H99" s="5">
+        <v>1</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K99" s="5">
+        <v>4</v>
+      </c>
+      <c r="L99" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="M99" s="5">
+        <v>47</v>
+      </c>
+      <c r="N99" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="O99" s="4">
+        <v>20</v>
+      </c>
+      <c r="P99" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A100" s="2">
+        <v>22</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100">
+        <v>2025</v>
+      </c>
+      <c r="E100" t="s">
+        <v>42</v>
+      </c>
+      <c r="F100">
+        <v>317184422</v>
+      </c>
+      <c r="G100" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H100" s="5">
+        <v>1</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K100" s="5">
+        <v>3</v>
+      </c>
+      <c r="L100" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M100" s="5">
+        <v>40</v>
+      </c>
+      <c r="N100" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="O100" s="4">
+        <v>18</v>
+      </c>
+      <c r="P100" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A101" s="2">
+        <v>22</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101">
+        <v>2025</v>
+      </c>
+      <c r="E101" t="s">
+        <v>42</v>
+      </c>
+      <c r="F101">
+        <v>317184423</v>
+      </c>
+      <c r="G101" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H101" s="5">
+        <v>1</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K101" s="5">
+        <v>4</v>
+      </c>
+      <c r="L101" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M101" s="5">
+        <v>48</v>
+      </c>
+      <c r="N101" s="4">
+        <v>10.7</v>
+      </c>
+      <c r="O101" s="4">
+        <v>20</v>
+      </c>
+      <c r="P101" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A102" s="2">
+        <v>22</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102">
+        <v>2025</v>
+      </c>
+      <c r="E102" t="s">
+        <v>42</v>
+      </c>
+      <c r="F102">
+        <v>317184424</v>
+      </c>
+      <c r="G102" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H102" s="5">
+        <v>1</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K102" s="5">
+        <v>4</v>
+      </c>
+      <c r="L102" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M102" s="5">
+        <v>49</v>
+      </c>
+      <c r="N102" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="O102" s="4">
+        <v>20</v>
+      </c>
+      <c r="P102" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A103" s="2">
+        <v>22</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103">
+        <v>2025</v>
+      </c>
+      <c r="E103" t="s">
+        <v>42</v>
+      </c>
+      <c r="F103">
+        <v>317184425</v>
+      </c>
+      <c r="G103" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H103" s="5">
+        <v>1</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K103" s="5">
+        <v>3</v>
+      </c>
+      <c r="L103" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="M103" s="5">
+        <v>48</v>
+      </c>
+      <c r="N103" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="O103" s="4">
+        <v>20</v>
+      </c>
+      <c r="P103" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A104" s="2">
+        <v>22</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104">
+        <v>2025</v>
+      </c>
+      <c r="E104" t="s">
+        <v>42</v>
+      </c>
+      <c r="F104">
+        <v>317184426</v>
+      </c>
+      <c r="G104" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H104" s="5">
+        <v>1</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K104" s="5">
+        <v>3</v>
+      </c>
+      <c r="L104" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="M104" s="5">
+        <v>50</v>
+      </c>
+      <c r="N104" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="O104" s="4">
+        <v>20</v>
+      </c>
+      <c r="P104" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A105" s="2">
+        <v>20</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105" t="s">
+        <v>20</v>
+      </c>
+      <c r="D105">
+        <v>2025</v>
+      </c>
+      <c r="E105" t="s">
+        <v>42</v>
+      </c>
+      <c r="F105">
+        <v>317184427</v>
+      </c>
+      <c r="G105" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H105" s="5">
+        <v>1</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K105" s="5">
+        <v>4</v>
+      </c>
+      <c r="L105" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="M105" s="5">
+        <v>50</v>
+      </c>
+      <c r="N105" s="4">
+        <v>12</v>
+      </c>
+      <c r="O105" s="4">
+        <v>20</v>
+      </c>
+      <c r="P105" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A106" s="2">
+        <v>20</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106">
+        <v>2025</v>
+      </c>
+      <c r="E106" t="s">
+        <v>42</v>
+      </c>
+      <c r="F106">
+        <v>317184428</v>
+      </c>
+      <c r="G106" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H106" s="5">
+        <v>1</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K106" s="5">
+        <v>3</v>
+      </c>
+      <c r="L106" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="M106" s="5">
+        <v>45</v>
+      </c>
+      <c r="N106" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="O106" s="4">
+        <v>18</v>
+      </c>
+      <c r="P106" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A107" s="2">
+        <v>20</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107">
+        <v>2025</v>
+      </c>
+      <c r="E107" t="s">
+        <v>42</v>
+      </c>
+      <c r="F107">
+        <v>317184429</v>
+      </c>
+      <c r="G107" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H107" s="5">
+        <v>1</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K107" s="5">
+        <v>4</v>
+      </c>
+      <c r="L107" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M107" s="5">
+        <v>46</v>
+      </c>
+      <c r="N107" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="O107" s="4">
+        <v>22</v>
+      </c>
+      <c r="P107" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A108" s="2">
+        <v>20</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108">
+        <v>2025</v>
+      </c>
+      <c r="E108" t="s">
+        <v>42</v>
+      </c>
+      <c r="F108">
+        <v>317184430</v>
+      </c>
+      <c r="G108" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H108" s="5">
+        <v>1</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K108" s="5">
+        <v>2</v>
+      </c>
+      <c r="L108" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="M108" s="5">
+        <v>48</v>
+      </c>
+      <c r="N108" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="O108" s="4">
+        <v>20</v>
+      </c>
+      <c r="P108" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A109" s="2">
+        <v>20</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109">
+        <v>2025</v>
+      </c>
+      <c r="E109" t="s">
+        <v>42</v>
+      </c>
+      <c r="F109">
+        <v>317184431</v>
+      </c>
+      <c r="G109" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H109" s="5">
+        <v>1</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K109" s="5">
+        <v>4</v>
+      </c>
+      <c r="L109" s="4">
+        <v>5</v>
+      </c>
+      <c r="M109" s="5">
+        <v>51</v>
+      </c>
+      <c r="N109" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="O109" s="4">
+        <v>21</v>
+      </c>
+      <c r="P109" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A110" s="2">
+        <v>20</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110">
+        <v>2025</v>
+      </c>
+      <c r="E110" t="s">
+        <v>42</v>
+      </c>
+      <c r="F110">
+        <v>317184432</v>
+      </c>
+      <c r="G110" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H110" s="5">
+        <v>1</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K110" s="5">
+        <v>3</v>
+      </c>
+      <c r="L110" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M110" s="5">
+        <v>51</v>
+      </c>
+      <c r="N110" s="4">
+        <v>12.1</v>
+      </c>
+      <c r="O110" s="4">
+        <v>19</v>
+      </c>
+      <c r="P110" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A111" s="2">
+        <v>30</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111">
+        <v>2025</v>
+      </c>
+      <c r="E111" t="s">
+        <v>42</v>
+      </c>
+      <c r="F111">
+        <v>317184433</v>
+      </c>
+      <c r="G111" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H111" s="5">
+        <v>1</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K111" s="5">
+        <v>4</v>
+      </c>
+      <c r="L111" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M111" s="5">
+        <v>44</v>
+      </c>
+      <c r="N111" s="4">
+        <v>7</v>
+      </c>
+      <c r="O111" s="4">
+        <v>19</v>
+      </c>
+      <c r="P111" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A112" s="2">
+        <v>30</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C112" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112">
+        <v>2025</v>
+      </c>
+      <c r="E112" t="s">
+        <v>42</v>
+      </c>
+      <c r="F112">
+        <v>317184434</v>
+      </c>
+      <c r="G112" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H112" s="5">
+        <v>1</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K112" s="5">
+        <v>4</v>
+      </c>
+      <c r="L112" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M112" s="5">
+        <v>40</v>
+      </c>
+      <c r="N112" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="O112" s="4">
+        <v>19</v>
+      </c>
+      <c r="P112" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A113" s="2">
+        <v>30</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C113" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113">
+        <v>2025</v>
+      </c>
+      <c r="E113" t="s">
+        <v>42</v>
+      </c>
+      <c r="F113">
+        <v>317184435</v>
+      </c>
+      <c r="G113" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H113" s="5">
+        <v>1</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K113" s="5">
+        <v>4</v>
+      </c>
+      <c r="L113" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M113" s="5">
+        <v>42</v>
+      </c>
+      <c r="N113" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="O113" s="4">
+        <v>19</v>
+      </c>
+      <c r="P113" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A114" s="2">
+        <v>30</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114">
+        <v>2025</v>
+      </c>
+      <c r="E114" t="s">
+        <v>54</v>
+      </c>
+      <c r="F114">
+        <v>317184436</v>
+      </c>
+      <c r="G114" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H114" s="5">
+        <v>1</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K114" s="5">
+        <v>3</v>
+      </c>
+      <c r="L114" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M114" s="5">
+        <v>42</v>
+      </c>
+      <c r="N114" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="O114" s="4">
+        <v>19</v>
+      </c>
+      <c r="P114" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A115" s="2">
+        <v>30</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C115" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115">
+        <v>2025</v>
+      </c>
+      <c r="E115" t="s">
+        <v>54</v>
+      </c>
+      <c r="F115">
+        <v>317184437</v>
+      </c>
+      <c r="G115" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H115" s="5">
+        <v>1</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K115" s="5">
+        <v>3</v>
+      </c>
+      <c r="L115" s="4">
+        <v>5</v>
+      </c>
+      <c r="M115" s="5">
+        <v>49</v>
+      </c>
+      <c r="N115" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O115" s="4">
+        <v>22</v>
+      </c>
+      <c r="P115" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A116" s="2">
+        <v>30</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C116" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116">
+        <v>2025</v>
+      </c>
+      <c r="E116" t="s">
+        <v>54</v>
+      </c>
+      <c r="F116">
+        <v>317184438</v>
+      </c>
+      <c r="G116" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H116" s="5">
+        <v>1</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K116" s="5">
+        <v>3</v>
+      </c>
+      <c r="L116" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M116" s="5">
+        <v>46</v>
+      </c>
+      <c r="N116" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="O116" s="4">
+        <v>21</v>
+      </c>
+      <c r="P116" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A117" s="2">
+        <v>12</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C117" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117">
+        <v>2025</v>
+      </c>
+      <c r="E117" t="s">
+        <v>42</v>
+      </c>
+      <c r="F117">
+        <v>317184439</v>
+      </c>
+      <c r="G117" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H117" s="5">
+        <v>1</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K117" s="5">
+        <v>4</v>
+      </c>
+      <c r="L117" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="M117" s="5">
+        <v>55</v>
+      </c>
+      <c r="N117" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="O117" s="4">
+        <v>23</v>
+      </c>
+      <c r="P117" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A118" s="2">
+        <v>12</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118">
+        <v>2025</v>
+      </c>
+      <c r="E118" t="s">
+        <v>42</v>
+      </c>
+      <c r="F118">
+        <v>317184440</v>
+      </c>
+      <c r="G118" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H118" s="5">
+        <v>1</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K118" s="5">
+        <v>5</v>
+      </c>
+      <c r="L118" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M118" s="5">
+        <v>47</v>
+      </c>
+      <c r="N118" s="4">
+        <v>8</v>
+      </c>
+      <c r="O118" s="4">
+        <v>22</v>
+      </c>
+      <c r="P118" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A119" s="2">
+        <v>12</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119">
+        <v>2025</v>
+      </c>
+      <c r="E119" t="s">
+        <v>42</v>
+      </c>
+      <c r="F119">
+        <v>317184442</v>
+      </c>
+      <c r="G119" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H119" s="5">
+        <v>1</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K119" s="5">
+        <v>5</v>
+      </c>
+      <c r="L119" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="M119" s="5">
+        <v>43</v>
+      </c>
+      <c r="N119" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="O119" s="4">
+        <v>20</v>
+      </c>
+      <c r="P119" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A120" s="2">
+        <v>12</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120">
+        <v>2025</v>
+      </c>
+      <c r="E120" t="s">
+        <v>42</v>
+      </c>
+      <c r="F120">
+        <v>317184443</v>
+      </c>
+      <c r="G120" s="3">
+        <v>45840</v>
+      </c>
+      <c r="H120" s="5">
+        <v>1</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K120" s="5">
+        <v>4</v>
+      </c>
+      <c r="L120" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="M120" s="5">
+        <v>50</v>
+      </c>
+      <c r="N120" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="O120" s="4">
+        <v>22</v>
+      </c>
+      <c r="P120" s="6">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -926,7 +6672,7 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.81640625" customWidth="1"/>
     <col min="2" max="2" width="157.36328125" bestFit="1" customWidth="1"/>
